--- a/Files/Middle_School_Football_Schedule_Rev4.xlsx
+++ b/Files/Middle_School_Football_Schedule_Rev4.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{D606909E-65C3-4A91-8F89-78A26BCCF40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE600193-05F2-4C1F-B5AA-D520CD785369}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -833,18 +833,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BQ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,7 +921,7 @@
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2"/>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -932,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -943,7 +943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -954,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -965,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -976,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -987,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -998,7 +998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -1339,10 +1339,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="C44" s="3"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1378,12 +1378,12 @@
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1435,18 +1435,18 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
         <v>122</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>101</v>
       </c>
@@ -2380,17 +2380,17 @@
       <selection activeCell="E17" sqref="E3:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="7" width="9.140625" style="5"/>
+    <col min="4" max="7" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="C2" s="3"/>
       <c r="D2" s="8">
         <v>45892</v>
@@ -2492,7 +2492,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>101</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="C27" s="6"/>
     </row>
   </sheetData>
@@ -3520,14 +3520,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3554,12 +3554,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -3599,12 +3599,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -3612,12 +3612,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3675,9 +3675,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>107</v>
       </c>
@@ -3685,37 +3685,37 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -3734,9 +3734,9 @@
       <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>45892</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
